--- a/output/xlsx/RF018 - Gerenciar Metas de Desempenho--GTP-.xlsx
+++ b/output/xlsx/RF018 - Gerenciar Metas de Desempenho--GTP-.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Lider de Pessoas esta autenticado no sistema; e, tem permissao para gerenciar Metas de Desempenho</t>
+    <t>Lider de Pessoas esta autenticado no sistema e tem permissao para gerenciar Metas de Desempenho</t>
   </si>
   <si>
     <t>#</t>
@@ -98,10 +98,10 @@
     <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com a opcao 'Editar' dentre as varias listadas</t>
   </si>
   <si>
-    <t>Lider de Pessoas com uma avaliacao selecionada, clica na opcao 'Editar' modificar a Avaliacao de Desempenho</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta o formulario com o campo 'Metas' constando cada Competencia do perfil avaliado</t>
+    <t>Lider de Pessoas com uma avaliacao selecionada, clica na opcao 'Editar' para modificar a Avaliacao de Desempenho</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o formulario com o campo 'Metas' contendo cada Competencia do perfil avaliado</t>
   </si>
   <si>
     <t>Lider de Pessoas altera o valor da 'Meta' para cada Competencia listada do perfil avaliado na Avaliacao atual (valores padrao de 1 a 4)</t>
